--- a/Антон Киселев.xlsx
+++ b/Антон Киселев.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,6 +33,7 @@
     <font>
       <b val="1"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -54,10 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -437,123 +439,769 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.8" customHeight="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Отчет Январь 2022г.</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="19.8" customHeight="1">
-      <c r="A2" s="1" t="n"/>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Киселев Антон.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Образцы</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Баллы</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец-эталон прикассы S813000224, 14 КК</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-9 КК</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея из МП, 29 КК</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ-2</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Ригла, образец, карман, № 146-1 ЮО</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -2</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Нинель, Образец,Модуль 175 ЧЯ</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-8 КК</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Образец, Поддон ЗЯ, 444КК-1</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, стойка, 445КК-1</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-9 КК</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-3 КК</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны S813000403_разработка, 338-6 КК</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Кики,подставки, Образцы, 9МК</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-7 КК</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея с новыми толкателями, 17 КК</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-4 КК</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-    </row>
-    <row r="24"/>
-    <row r="25"/>
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея INF97010003, 8 КК</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев, 10 КК</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны ИНФЛЮЕНС малый формат, 141-7 КК</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="26">
-      <c r="A26" s="2" t="n"/>
-    </row>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы скатывающегося дисплея Глобал ,449 - 3 КК</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны S813000403_разработка, 338-7 КК</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы крепления для стойки ЛЕНТА D215920073 , 13 КК</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП образцы накладок, 74-1 КК</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Образец Поддон ЗЯ, 444 КК-2</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образцы ЦП, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ-4</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Инситех, Образец, Подложка, 1МК</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, образцы, подставка, 2МК</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец палетки Глобал, 447-1 КК</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Ригла, образец, витрина, № 143-2 ЮО</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец, стойка, 445-2 КК</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскизы и образцы, к Заказу 682/1, промосекции, шелфтокеры, 448КК</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец дисплея ИНФЛ с изменениями от ОТК, 35 КК</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эталоны дисплеев под мыло, 419-5 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП переформатирование ЗЯ, 372-7 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эталоны дисплеев под мыло, 419-6 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>ИнелДисплей, РМ топпера, 379-1 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, Р.М, подставка, 2МК-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Черноголовка,РМ, стойка, № 7 ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>OZON, Р.М., навигация, 12МК СРОЧНО!!!!! РАСЧЕТ БУДЕТ ДОПОЛНЯТЬСЯ</t>
+        </is>
+      </c>
+    </row>
     <row r="51">
-      <c r="A51" s="2" t="n"/>
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>Эль Пако, РМ,пвх деталь, № 151ЮО</t>
+        </is>
+      </c>
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="n"/>
     </row>
-    <row r="52"/>
-    <row r="53"/>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ доработка скатывающегося дисплея ,449 - 1КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>OZON, Р.М., навигация, 12МК СРОЧНО!!!!! РАСЧЕТ БУДЕТ ДОПОЛНЯТЬСЯ</t>
+        </is>
+      </c>
+    </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-    </row>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>MUA, Р.М., Гондола, 40МК-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>АртВизаж, РМ оборудования для ЗЯ, 438-4 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Подружка, РМ, дисплеи, №21 ЮЛ</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Р.М. Универсальный Хот Спот,17МК</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Р.М., дисплеи, 446КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>ПЕРЕКРЕСТОК, РМ тендр ценники, 16 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ дисплея D215910085, 23 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ комплекта СкинСтудио, 12 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>ЭрихКраузе, РМ гондолы двусторонней, 9 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>Черноголовка,РМ, стойка + ограничитель, № 4ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, Р.М. формовкой, Подставка, 21МК-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ страйп лента с карманами на заклепках Zollider, 19 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ дисплеев для сети РИВ ГОШ, 412-8 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Нинель, РМ, Крышка, № 3 ЧЯ</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП переформатирование ЗЯ,  372-6 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменение в МП, к Заказу 682/1, промосекции, шелфтокеры, 448-1 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Нинель,,Модуль 175 ЧЯ-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, D215920774 VSПодиум для промоподставки формат РГ, эскиз 6-2 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз шкафа D215910249, 20 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Эскиз, палетка Глобал, 447КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз, дисплей,449КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз дисплея в шкафу ,449 - 2 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Эскиз, Кассета Armani под помады, ТЗ 173СФ-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Градиент,Чертеж, Дисплей, 442КК-1, МЕГА СРОЧНО!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, D215920774 VSПодиум для промоподставки формат РГ, эскиз 6-1 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, проверка файлов и изменение в МП, 24-1 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, D215920774 VSПодиум для промоподставки формат РГ, эскиз 6 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>АртВизаж, эскиз оборудования для ЗЯ, 438-5 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз шкафа из МП D215899739, 7 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз шкафа из МП D215899739, 7-1 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, развертки для присадки дизайна шкафа из МП D215899739, 7-2 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>АртВизаж, эскиз дисплея-накопителя, 32 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, эскизы накладок на дисплей Глобал, 11 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, проверка файлов INF97010111, 21 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>АРТ-ВИЗАЖ, разработка инструкции по подключению оборудованию в ЗЯ, 36 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, изменения в МП-добавляем скотч, 25 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>АртВизаж, эскиз дисплея-накопителя, 32-1 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+    </row>
     <row r="100"/>
     <row r="101"/>
     <row r="102"/>

--- a/Антон Киселев.xlsx
+++ b/Антон Киселев.xlsx
@@ -441,7 +441,7 @@
     <row r="1" ht="19.8" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Ноябрь 2021г.</t>
         </is>
       </c>
     </row>
@@ -468,17 +468,17 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец-эталон прикассы S813000224, 14 КК</t>
+          <t>Градиент, образцы кассет , 353-8 КК</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-9 КК</t>
+          <t>Диваж, Образец, Баркета для ассортимента RBR, ТЗ 193СФ-3</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
@@ -488,7 +488,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея из МП, 29 КК</t>
+          <t>Диваж, Образец, Баркета для ассортимента RBR, ТЗ 193СФ-3</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
@@ -498,47 +498,47 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы, Шелфтокеры Redken 2022, ТЗ 225СФ-2</t>
+          <t>ПОДРУЖКА, образец комплекта оборудования для шкафа, 323-3 КК</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Ригла, образец, карман, № 146-1 ЮО</t>
+          <t>Градиент, образцы поддонов РБ, 390-1 КК</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образец/Изменение в МП, навигация Виши, Деркос тираж для стран Экспорта, ТЗ 230СФ -2</t>
+          <t>Градиент, образцы РГ ИНФЛЮЕНС 190 мм, 374-3 КК</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Нинель, Образец,Модуль 175 ЧЯ</t>
+          <t>Градиент, образец дисплея BrowBar, 176-8 КК</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, S813000391 и S813000392 , ТЗ 287-8 КК</t>
+          <t>Лореаль, Образец, Тендер на разработку баров для бровей MBL_BROW Studio_ВАЖНО, ТЗ 161СФ-15</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
@@ -548,37 +548,37 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ</t>
+          <t>Градиент, образцы дисплеев, 372-2 КК</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Градиент, Образец, Поддон ЗЯ, 444КК-1</t>
+          <t>Градиент, Стеллари образец кассеты S813000393 Stellary Коллекционная кассета Marble, 296-5 КК</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, стойка, 445КК-1</t>
+          <t>Градиент, образцы календарей для китайцев, 371 -1 КК</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-9 КК</t>
+          <t>ПОДРУЖКА, образец комплекта оборудования для шкафа, 323-2 КК</t>
         </is>
       </c>
       <c r="B16" s="3" t="n">
@@ -588,7 +588,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-3 КК</t>
+          <t>Градиент, образец палетки D215920262, 417 КК</t>
         </is>
       </c>
       <c r="B17" s="3" t="n">
@@ -598,7 +598,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны S813000403_разработка, 338-6 КК</t>
+          <t>Градиент, образец-эталон поддона Инфлюенс, 380-2 КК</t>
         </is>
       </c>
       <c r="B18" s="3" t="n">
@@ -608,27 +608,27 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Кики,подставки, Образцы, 9МК</t>
+          <t>Градиент, образец-эталон дисплея D215920120, 233-6 КК</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-7 КК</t>
+          <t>Градиент, образец дисплея под патчи, 394-2 КК</t>
         </is>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея с новыми толкателями, 17 КК</t>
+          <t>Градиент, образец S813000403_разработка, 338-2 КК</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
@@ -638,7 +638,7 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец D215920774 VSПодиум для промоподставки формат РГ, 6-4 КК</t>
+          <t>Градиент, образцы дисплеев, 372-2 КК</t>
         </is>
       </c>
       <c r="B22" s="3" t="n">
@@ -648,48 +648,48 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея INF97010003, 8 КК</t>
+          <t>Градиент, образцы кассет , 353-10 КК</t>
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны дисплеев, 10 КК</t>
+          <t>Лореаль, Образец, К бланку 643/Образец, Тендер на разработку баров для бровей MBL_BROW Studio_ВАЖНО, ТЗ 161СФ-14</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны ИНФЛЮЕНС малый формат, 141-7 КК</t>
+          <t>Лореаль, Образец., Баретки, 211СФ</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы скатывающегося дисплея Глобал ,449 - 3 КК</t>
+          <t>Градиент, образец дисплея и поддона Стеллари, 382-2 КК</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы-эталоны S813000403_разработка, 338-7 КК</t>
+          <t>Градиент, образцы РГ ИНФЛЮЕНС 190 мм, 374-2 КК</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
@@ -699,37 +699,38 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образцы крепления для стойки ЛЕНТА D215920073 , 13 КК</t>
+          <t>Градиент, образец вставки в палетку дисплея BrowBar, 176-9 КК</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП образцы накладок, 74-1 КК</t>
+          <t>Градиент, образцы Инфлюенс, 397 КК</t>
         </is>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Градиент, Образец Поддон ЗЯ, 444 КК-2</t>
+          <t>Градиент, образец дисплея VG02200063, 387 КК</t>
         </is>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Образцы ЦП, Производство решеток Armani LIP MAESTRO MEDITERRANEA, ТЗ 3СФ-4</t>
+          <t>Градиент, образцы-эталоны Аксессуары Инфлуенс доп. выкладка, №ТЗ 282-7 КК</t>
         </is>
       </c>
       <c r="B31" s="3" t="n">
@@ -740,57 +741,57 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Инситех, Образец, Подложка, 1МК</t>
+          <t>Градиент, образцы поддонов РБ, 390 КК</t>
         </is>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Триумф, образцы, подставка, 2МК</t>
+          <t>Коломенская Пивоварня, образцы, коробка, № 130-2 ЮО</t>
         </is>
       </c>
       <c r="B33" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Триумф, Образец формовкой, Подставка, 21МК</t>
+          <t>Градиент, образцы РГ ИНФЛЮЕНС 190 мм, 374-1 КК</t>
         </is>
       </c>
       <c r="B34" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец палетки Глобал, 447-1 КК</t>
+          <t>Градиент, образцы дисплеев к Шкафу Глобал 500 мм, 330- 5 КК</t>
         </is>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Ригла, образец, витрина, № 143-2 ЮО</t>
+          <t>Градиент, образец календаря для китайцев, 371 -2 КК</t>
         </is>
       </c>
       <c r="B36" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец, стойка, 445-2 КК</t>
+          <t>Градиент, образцы РГ ИНФЛЮЕНС 190 мм, 374-4 КК</t>
         </is>
       </c>
       <c r="B37" s="3" t="n">
@@ -800,380 +801,335 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эскизы и образцы, к Заказу 682/1, промосекции, шелфтокеры, 448КК</t>
+          <t>Градиент, образцы кассет , 353-9 КК</t>
         </is>
       </c>
       <c r="B38" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Градиент, образец дисплея ИНФЛ с изменениями от ОТК, 35 КК</t>
+          <t>Диваж, Образец, Стойка в салон красоты, ТЗ 115СФ-4</t>
         </is>
       </c>
       <c r="B39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Образец, Лайнер Бары для Шкафов,212СФ</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы кассет , 353-7 КК</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Диваж, Образец, Баркета для ассортимента RBR, ТЗ 193СФ-2</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C39" s="3" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Сумма</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Задания</t>
-        </is>
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы дисплеев, 388-2 КК</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эталоны дисплеев под мыло, 419-5 КК</t>
-        </is>
+          <t>Бьютидрагс, Образцы, Доработка оборудования для Бьютидрагс, ТЗ 208СФ</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП переформатирование ЗЯ, 372-7 КК</t>
-        </is>
+          <t>Ozon, образцы, Навигация, №ТЗ 6-1 ЮЛ</t>
+        </is>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, эталоны дисплеев под мыло, 419-6 КК</t>
-        </is>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Сумма</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>13200</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
-        <is>
-          <t>ИнелДисплей, РМ топпера, 379-1 КК</t>
-        </is>
-      </c>
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>Триумф, Р.М, подставка, 2МК-2</t>
-        </is>
-      </c>
+      <c r="A48" s="3" t="n"/>
+      <c r="B48" s="3" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>Черноголовка,РМ, стойка, № 7 ЮО</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Задания</t>
+        </is>
+      </c>
+      <c r="B49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>OZON, Р.М., навигация, 12МК СРОЧНО!!!!! РАСЧЕТ БУДЕТ ДОПОЛНЯТЬСЯ</t>
-        </is>
-      </c>
+          <t>20-18 КК Дисплей инфлюэнс</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Эль Пако, РМ,пвх деталь, № 151ЮО</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n"/>
-      <c r="C51" s="2" t="n"/>
+          <t>ОЗОН, Р.М., Картины, 15МК</t>
+        </is>
+      </c>
+      <c r="B51" s="3" t="n"/>
+      <c r="C51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ доработка скатывающегося дисплея ,449 - 1КК</t>
+          <t>Подружка, РМ тендер, 422 КК</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>OZON, Р.М., навигация, 12МК СРОЧНО!!!!! РАСЧЕТ БУДЕТ ДОПОЛНЯТЬСЯ</t>
+          <t>Спектрум, РМ, Тубус, № 155 ЧЯ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>MUA, Р.М., Гондола, 40МК-2</t>
+          <t>Градиент, РМ монетниц, 416 КК</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>АртВизаж, РМ оборудования для ЗЯ, 438-4 КК</t>
+          <t>Градиент, РМ кассеты S813000393 Stellary Коллекционная кассета Marble, 296-6 КК</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Подружка, РМ, дисплеи, №21 ЮЛ</t>
+          <t>Градиент, РМ кассет , 353-9 КК</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Лореаль, Р.М. Универсальный Хот Спот,17МК</t>
+          <t>Лореаль,Р.М,, Баретки, 211СФ-1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Градиент, Р.М., дисплеи, 446КК</t>
+          <t>ПОС МЕДИА МАРКЕТ, РМ, Подвесной мобайл , № 158 ЧЯ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>ПЕРЕКРЕСТОК, РМ тендр ценники, 16 КК</t>
+          <t>Лореаль, Р.М, Лайнер Бары для Шкафов,212СФ-1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ дисплея D215910085, 23 КК</t>
+          <t>ПосЛайн,Р.М.,Ценникодержатели 4-х видов, 26МК</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ комплекта СкинСтудио, 12 КК</t>
+          <t>Диваж, РМ, Баркета для ассортимента RBR, ТЗ 193СФ-4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>ЭрихКраузе, РМ гондолы двусторонней, 9 КК</t>
+          <t>Коломенская Пивоварня, развёртка , коробка, № 130-1 ЮО</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Черноголовка,РМ, стойка + ограничитель, № 4ЮО</t>
+          <t>Новые Химические Технологии, РМ стойки, 414-1 КК</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Триумф, Р.М. формовкой, Подставка, 21МК-2</t>
+          <t>Градиент, эскизы дисплеев, 388 КК</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ страйп лента с карманами на заклепках Zollider, 19 КК</t>
+          <t>Градиент, эскиз дисплеев под мыло, 419 КК</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Градиент, РМ дисплеев для сети РИВ ГОШ, 412-8 КК</t>
+          <t>Градиент, эскиз дисплеев под мыло, 419-1 КК</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>Нинель, РМ, Крышка, № 3 ЧЯ</t>
+          <t>Градиент, замена в МП D215920120, 233-5 КК</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП переформатирование ЗЯ,  372-6 КК</t>
+          <t>Градиент, эскиз стойки и замена в МП, 394 КК</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>Градиент, изменение в МП, к Заказу 682/1, промосекции, шелфтокеры, 448-1 КК</t>
+          <t>Градиент, эскиз стойки и замена в МП, 394-1 КК</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>Нинель,,Модуль 175 ЧЯ-1</t>
+          <t>Градиент, эскизы дисплеев, 388-1 КК</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Градиент, D215920774 VSПодиум для промоподставки формат РГ, эскиз 6-2 КК</t>
+          <t>Градиент, изменения в МП, 404 КК</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>Градиент, эскиз шкафа D215910249, 20 КК</t>
+          <t>Градиент, изменения в МП, 388-3 КК</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>Градиент, Эскиз, палетка Глобал, 447КК</t>
+          <t>Диваж, Эскизы баркет, ТЗ 166СФ</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, эскиз, дисплей,449КК</t>
-        </is>
-      </c>
+      <c r="A74" s="3" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, эскиз дисплея в шкафу ,449 - 2 КК</t>
-        </is>
-      </c>
+      <c r="A75" s="3" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>Лореаль, Эскиз, Кассета Armani под помады, ТЗ 173СФ-1</t>
-        </is>
-      </c>
+      <c r="A76" s="3" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>Градиент,Чертеж, Дисплей, 442КК-1, МЕГА СРОЧНО!!!</t>
-        </is>
-      </c>
+      <c r="A77" s="3" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, D215920774 VSПодиум для промоподставки формат РГ, эскиз 6-1 КК</t>
-        </is>
-      </c>
+      <c r="A78" s="3" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, проверка файлов и изменение в МП, 24-1 КК</t>
-        </is>
-      </c>
+      <c r="A79" s="3" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, D215920774 VSПодиум для промоподставки формат РГ, эскиз 6 КК</t>
-        </is>
-      </c>
+      <c r="A80" s="3" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>АртВизаж, эскиз оборудования для ЗЯ, 438-5 КК</t>
-        </is>
-      </c>
+      <c r="A81" s="3" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, эскиз шкафа из МП D215899739, 7 КК</t>
-        </is>
-      </c>
+      <c r="A82" s="3" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, эскиз шкафа из МП D215899739, 7-1 КК</t>
-        </is>
-      </c>
+      <c r="A83" s="3" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, развертки для присадки дизайна шкафа из МП D215899739, 7-2 КК</t>
-        </is>
-      </c>
+      <c r="A84" s="3" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>АртВизаж, эскиз дисплея-накопителя, 32 КК</t>
-        </is>
-      </c>
+      <c r="A85" s="3" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, эскизы накладок на дисплей Глобал, 11 КК</t>
-        </is>
-      </c>
+      <c r="A86" s="3" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, проверка файлов INF97010111, 21 КК</t>
-        </is>
-      </c>
+      <c r="A87" s="3" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="inlineStr">
-        <is>
-          <t>АРТ-ВИЗАЖ, разработка инструкции по подключению оборудованию в ЗЯ, 36 КК</t>
-        </is>
-      </c>
+      <c r="A88" s="3" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>Градиент, изменения в МП-добавляем скотч, 25 КК</t>
-        </is>
-      </c>
+      <c r="A89" s="3" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="inlineStr">
-        <is>
-          <t>АртВизаж, эскиз дисплея-накопителя, 32-1 КК</t>
-        </is>
-      </c>
+      <c r="A90" s="3" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n"/>
